--- a/raspis-v2--31-01-2024/raspisanie-4303-v2.xlsx
+++ b/raspis-v2--31-01-2024/raspisanie-4303-v2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8DFAE3-3680-481F-A9E8-349EB90D64F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDB9410-ECFD-43FD-AE55-51E027DEA906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="73">
   <si>
     <t>Четная неделя</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Кафедра САиИТ</t>
+  </si>
+  <si>
+    <t>invalid list</t>
   </si>
 </sst>
 </file>
@@ -319,7 +322,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +357,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -595,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -851,6 +860,15 @@
     <xf numFmtId="164" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,15 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -889,6 +898,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1198,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:P22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,26 +1234,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="110"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="113"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1292,7 +1302,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="105" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5">
@@ -1338,7 +1348,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="11">
         <v>2</v>
       </c>
@@ -1384,7 +1394,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="11">
         <v>3</v>
       </c>
@@ -1430,7 +1440,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="18">
         <v>4</v>
       </c>
@@ -1476,7 +1486,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="105" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="26">
@@ -1498,7 +1508,7 @@
       <c r="H7" s="30">
         <v>0.46527777777777779</v>
       </c>
-      <c r="I7" s="111" t="s">
+      <c r="I7" s="105" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="5">
@@ -1516,7 +1526,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="112"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="11">
         <v>2</v>
       </c>
@@ -1538,7 +1548,7 @@
       <c r="H8" s="16">
         <v>0.54861111111111116</v>
       </c>
-      <c r="I8" s="113"/>
+      <c r="I8" s="107"/>
       <c r="J8" s="11">
         <v>2</v>
       </c>
@@ -1562,7 +1572,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="11">
         <v>3</v>
       </c>
@@ -1582,7 +1592,7 @@
       <c r="H9" s="16">
         <v>0.65277777777777779</v>
       </c>
-      <c r="I9" s="113"/>
+      <c r="I9" s="107"/>
       <c r="J9" s="11">
         <v>3</v>
       </c>
@@ -1604,7 +1614,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="113"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="18">
         <v>4</v>
       </c>
@@ -1624,7 +1634,7 @@
       <c r="H10" s="34">
         <v>0.73611111111111116</v>
       </c>
-      <c r="I10" s="113"/>
+      <c r="I10" s="107"/>
       <c r="J10" s="35">
         <v>4</v>
       </c>
@@ -1646,7 +1656,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="105" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="26">
@@ -1670,7 +1680,7 @@
       <c r="H11" s="30">
         <v>0.46527777777777779</v>
       </c>
-      <c r="I11" s="111" t="s">
+      <c r="I11" s="105" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="39">
@@ -1694,7 +1704,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="11">
         <v>2</v>
       </c>
@@ -1716,7 +1726,7 @@
       <c r="H12" s="16">
         <v>0.54861111111111116</v>
       </c>
-      <c r="I12" s="113"/>
+      <c r="I12" s="107"/>
       <c r="J12" s="11">
         <v>2</v>
       </c>
@@ -1740,7 +1750,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="11">
         <v>3</v>
       </c>
@@ -1756,7 +1766,7 @@
       <c r="H13" s="16">
         <v>0.65277777777777779</v>
       </c>
-      <c r="I13" s="113"/>
+      <c r="I13" s="107"/>
       <c r="J13" s="11">
         <v>3</v>
       </c>
@@ -1774,7 +1784,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="113"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="18">
         <v>4</v>
       </c>
@@ -1788,7 +1798,7 @@
       <c r="H14" s="49">
         <v>0.73611111111111116</v>
       </c>
-      <c r="I14" s="113"/>
+      <c r="I14" s="107"/>
       <c r="J14" s="35">
         <v>4</v>
       </c>
@@ -1804,7 +1814,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="105" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="26">
@@ -1824,7 +1834,7 @@
       <c r="H15" s="30">
         <v>0.46527777777777779</v>
       </c>
-      <c r="I15" s="111" t="s">
+      <c r="I15" s="105" t="s">
         <v>32</v>
       </c>
       <c r="J15" s="39">
@@ -1846,7 +1856,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="112"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="11">
         <v>2</v>
       </c>
@@ -1868,7 +1878,7 @@
       <c r="H16" s="16">
         <v>0.54861111111111116</v>
       </c>
-      <c r="I16" s="113"/>
+      <c r="I16" s="107"/>
       <c r="J16" s="11">
         <v>2</v>
       </c>
@@ -1892,7 +1902,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="112"/>
+      <c r="A17" s="106"/>
       <c r="B17" s="11">
         <v>3</v>
       </c>
@@ -1914,7 +1924,7 @@
       <c r="H17" s="16">
         <v>0.65277777777777779</v>
       </c>
-      <c r="I17" s="113"/>
+      <c r="I17" s="107"/>
       <c r="J17" s="11">
         <v>3</v>
       </c>
@@ -1936,7 +1946,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="113"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="18">
         <v>4</v>
       </c>
@@ -1956,7 +1966,7 @@
       <c r="H18" s="34">
         <v>0.73611111111111116</v>
       </c>
-      <c r="I18" s="113"/>
+      <c r="I18" s="107"/>
       <c r="J18" s="54">
         <v>4</v>
       </c>
@@ -1978,7 +1988,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="105" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="26">
@@ -2002,7 +2012,7 @@
       <c r="H19" s="30">
         <v>0.46527777777777779</v>
       </c>
-      <c r="I19" s="111" t="s">
+      <c r="I19" s="105" t="s">
         <v>35</v>
       </c>
       <c r="J19" s="39">
@@ -2020,7 +2030,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="112"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="11">
         <v>2</v>
       </c>
@@ -2042,7 +2052,7 @@
       <c r="H20" s="16">
         <v>0.54861111111111116</v>
       </c>
-      <c r="I20" s="113"/>
+      <c r="I20" s="107"/>
       <c r="J20" s="11">
         <v>2</v>
       </c>
@@ -2066,7 +2076,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="112"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="11">
         <v>3</v>
       </c>
@@ -2080,7 +2090,7 @@
       <c r="H21" s="6">
         <v>0.65277777777777779</v>
       </c>
-      <c r="I21" s="113"/>
+      <c r="I21" s="107"/>
       <c r="J21" s="11">
         <v>3</v>
       </c>
@@ -2104,7 +2114,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="113"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="35">
         <v>4</v>
       </c>
@@ -2118,7 +2128,7 @@
       <c r="H22" s="66">
         <v>0.73611111111111116</v>
       </c>
-      <c r="I22" s="113"/>
+      <c r="I22" s="107"/>
       <c r="J22" s="35">
         <v>4</v>
       </c>
@@ -2133,20 +2143,25 @@
         <v>0.73611111111111116</v>
       </c>
     </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="121" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="I7:I10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="I11:I14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="I19:I22"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="I7:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2157,7 +2172,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C12" sqref="C12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2423,7 +2438,9 @@
       <c r="E12" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="67"/>
+      <c r="F12" s="67" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="78">
         <v>0.47916666666666669</v>
       </c>
@@ -2629,7 +2646,9 @@
       <c r="E21" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="67"/>
+      <c r="F21" s="67" t="s">
+        <v>34</v>
+      </c>
       <c r="G21" s="78">
         <v>0.58333333333333337</v>
       </c>
@@ -2680,7 +2699,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="C21" sqref="C21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2955,7 +2974,9 @@
       <c r="E12" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="67"/>
+      <c r="F12" s="67" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="78">
         <v>0.47916666666666669</v>
       </c>
@@ -3159,7 +3180,9 @@
       <c r="E21" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="67"/>
+      <c r="F21" s="67" t="s">
+        <v>34</v>
+      </c>
       <c r="G21" s="78">
         <v>0.58333333333333337</v>
       </c>
